--- a/playlist_per_work/lope001dull01.xlsx
+++ b/playlist_per_work/lope001dull01.xlsx
@@ -483,19 +483,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#louise,-arnoldo</t>
+          <t>#karel,-leonelle,-dionisio,-henrick,-philippo,-prudentio,-theodoro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Louise, Arnoldo</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Karel, Leonelle, Dionisio, Henrick, Philippo, Prudentio, Theodoro</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -509,19 +505,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#phi</t>
+          <t>#louise,-arnoldo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Phi</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Louise, Arnoldo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -535,19 +527,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#theo</t>
+          <t>#lou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Theo</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Lou</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -561,19 +549,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#karel,-arnoldo,-tancredo,-leonello</t>
+          <t>#blanche.-karel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Karel, Arnoldo, Tancredo, Leonello</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Blanche. Karel</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -587,19 +571,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#bla</t>
+          <t>#dio</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bla</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Dio</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -613,19 +593,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#dionisio,-karel,-rufino,-leonello</t>
+          <t>#philippo,-theodoro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dionisio, Karel, Rufino, Leonello</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Philippo, Theodoro</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -639,19 +615,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#louise,-blanche,-karel,-leonello,-dionisio</t>
+          <t>#blan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Louise, Blanche, Karel, Leonello, Dionisio</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Blan</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -665,19 +637,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#dio</t>
+          <t>#henrick,-arnoldo,-karel,-blanche</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dio</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Henrick, Arnoldo, Karel, Blanche</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -691,19 +659,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#louise</t>
+          <t>#henrick,-arnoldo,-karel,-blanche,-theodoor</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Louise</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Henrick, Arnoldo, Karel, Blanche, Theodoor</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -717,19 +681,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#theodoro,-henrick,-prudentio,-philippo</t>
+          <t>#karel,-dionisus,-leonello,-philippo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Theodoro, Henrick, Prudentio, Philippo</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Karel, Dionisus, Leonello, Philippo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -751,11 +711,7 @@
           <t>Philippo, Arnoldo</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -769,19 +725,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#karel,-philippo,-leonello,-dionisio,-theodoro</t>
+          <t>#henrich,-prudentie,-theodoro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Karel, Philippo, Leonello, Dionisio, Theodoro</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Henrich, Prudentie, Theodoro</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -795,19 +747,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#henrick,-arnoldo,-karel,-blanche</t>
+          <t>#prudentio-veebaest-uyt,-henrick</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Henrick, Arnoldo, Karel, Blanche</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Prudentio veebaest uyt, Henrick</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -821,19 +769,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#karel,-henrick,-blanche,-louise</t>
+          <t>#philippo,-arnoldo,-theodoro</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Karel, Henrick, Blanche, Louise</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Philippo, Arnoldo, Theodoro</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -847,19 +791,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#karel,-leonello,-dionisio</t>
+          <t>#kar</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Karel, Leonello, Dionisio</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Kar</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -873,19 +813,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#henrick,-philippo,-arnoldo,-prudentio</t>
+          <t>#henr</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Henrick, Philippo, Arnoldo, Prudentio</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Henr</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -907,11 +843,7 @@
           <t>Philippo, Henrick</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -925,19 +857,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#rufino,-henrick,-philippo,-theodoro,-prudentio</t>
+          <t>#fil</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Rufino, Henrick, Philippo, Theodoro, Prudentio</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Fil</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -951,19 +879,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#henrich,-prudentie,-theodoro</t>
+          <t>#blanche,-louise,-henrick</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Henrich, Prudentie, Theodoro</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Blanche, Louise, Henrick</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -977,19 +901,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#blanche</t>
+          <t>#arn</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Blanche</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Arn</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1003,19 +923,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#karel,-dionisus,-leonello,-philippo</t>
+          <t>#blanche,-in-slecht-gewaed,-karel,-theodoro</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Karel, Dionisus, Leonello, Philippo</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Blanche, in slecht gewaed, Karel, Theodoro</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1029,19 +945,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>#blanche,-in-slecht-gewaed,-karel,-theodoro</t>
+          <t>#ken</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Blanche, in slecht gewaed, Karel, Theodoro</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1055,19 +967,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>#theodoro,-leonello,-karel,-dionisio,-blanche,-louise</t>
+          <t>#theodoro,-henrick,-prudentio,-philippo</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Theodoro, Leonello, Karel, Dionisio, Blanche, Louise</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Theodoro, Henrick, Prudentio, Philippo</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1081,19 +989,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>#henrick,-met-philippo-zijn-gunsteling-onder-snaergespeel-in-de-nacht-uyt</t>
+          <t>#louise,-blanche,-karel,-dionisio,-leonello</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Henrick, met Philippo zijn gunsteling onder snaergespeel in de nacht uyt</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Louise, Blanche, Karel, Dionisio, Leonello</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1107,19 +1011,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#louise,-blanche,-karel,-dionisio,-leonello</t>
+          <t>#dionisio,-karel,-rufino,-leonello</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Louise, Blanche, Karel, Dionisio, Leonello</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Dionisio, Karel, Rufino, Leonello</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1133,19 +1033,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>#tancredo,-arnoldo</t>
+          <t>#blanthe,-louise</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tancredo, Arnoldo</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Blanthe, Louise</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -1159,19 +1055,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>#blanche,-louise,-henrick</t>
+          <t>#theo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Blanche, Louise, Henrick</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Theo</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -1185,19 +1077,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#theodoro,-henrick,-philippo,-arnoldo</t>
+          <t>#karel,-henrick,-blanche,-louise</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Theodoro, Henrick, Philippo, Arnoldo</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Karel, Henrick, Blanche, Louise</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1211,19 +1099,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>#prud</t>
+          <t>#dam</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Prud</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Dam</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1237,19 +1121,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>#louise,-blanche</t>
+          <t>#blanche</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Louise, Blanche</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Blanche</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1263,19 +1143,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>#lou</t>
+          <t>#karel,-dionisio,-leonello,-henrick,-philippo</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Lou</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Karel, Dionisio, Leonello, Henrick, Philippo</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -1289,21 +1165,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>#leonello,-dionisio,-karel,-filis,-lisida,
-blanche,-louise</t>
+          <t>#tancredo,-arnoldo</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Leonello, Dionisio, Karel, Filis, Lisida,
-Blanche, Louise</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Tancredo, Arnoldo</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -1317,19 +1187,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>#karel,-dionisio,-leonello</t>
+          <t>#the</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Karel, Dionisio, Leonello</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -1343,19 +1209,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>#blanche.-karel</t>
+          <t>#theodoro,-henrick,-philippo,-arnoldo</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Blanche. Karel</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Theodoro, Henrick, Philippo, Arnoldo</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -1369,19 +1231,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>#philippo,-theodoro,-blanche,-louise</t>
+          <t>#marsal,-karel,-dampier,-leonello,-dionisio,-blanche,
+louise,-filis,-lisida</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Philippo, Theodoro, Blanche, Louise</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Marsal, Karel, Dampier, Leonello, Dionisio, Blanche,
+Louise, Filis, Lisida</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -1395,19 +1255,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>#henrick,-arnoldo,-karel,-blanche,-theodoor</t>
+          <t>#louise,-blanche,-karel,-leonello,-dionisio</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Henrick, Arnoldo, Karel, Blanche, Theodoor</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Louise, Blanche, Karel, Leonello, Dionisio</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -1421,19 +1277,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>#philippo,-arnoldo,-theodoro</t>
+          <t>#theodoor,-karel</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Philippo, Arnoldo, Theodoro</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Theodoor, Karel</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -1447,19 +1299,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>#karel,-leonelle,-dionisio,-henrick,-philippo,-prudentio,-theodoro</t>
+          <t>#karel,-dionisio,-leonello</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Karel, Leonelle, Dionisio, Henrick, Philippo, Prudentio, Theodoro</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Karel, Dionisio, Leonello</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -1473,19 +1321,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>#karel,-blanche</t>
+          <t>#henrick,-philippo,-arnoldo,-theodoro,-leonello,-dionisio,
+karel,-blanche,-louise,-prudentio</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Karel, Blanche</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Henrick, Philippo, Arnoldo, Theodoro, Leonello, Dionisio,
+Karel, Blanche, Louise, Prudentio</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -1499,21 +1345,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>#henrick,-philippo,-arnoldo,-theodoro,-leonello,-dionisio,
-karel,-blanche,-louise,-prudentio</t>
+          <t>#louise</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Henrick, Philippo, Arnoldo, Theodoro, Leonello, Dionisio,
-Karel, Blanche, Louise, Prudentio</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Louise</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -1527,19 +1367,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>#leonello,-arnoldo,-tancredo</t>
+          <t>#karel,-arnoldo,-tancredo,-leonello</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Leonello, Arnoldo, Tancredo</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Karel, Arnoldo, Tancredo, Leonello</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -1553,19 +1389,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>#philippo,-theodoro</t>
+          <t>#karel,-philippo,-leonello,-dionisio,-theodoro</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Philippo, Theodoro</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Karel, Philippo, Leonello, Dionisio, Theodoro</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
@@ -1579,19 +1411,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>#blanche,-louise</t>
+          <t>#die</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Blanche, Louise</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Die</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
@@ -1605,19 +1433,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>#arnoldo-in-de-thuyn</t>
+          <t>#theodoro,-leonello,-karel,-dionisio,-blanche,-louise</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Arnoldo in de thuyn</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Theodoro, Leonello, Karel, Dionisio, Blanche, Louise</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -1631,21 +1455,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>#marsal,-karel,-dampier,-leonello,-dionisio,-blanche,
-louise,-filis,-lisida</t>
+          <t>#karel,-leonello,-dionisio</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Marsal, Karel, Dampier, Leonello, Dionisio, Blanche,
-Louise, Filis, Lisida</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Karel, Leonello, Dionisio</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -1659,19 +1477,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>#karel,-blanche,-louise</t>
+          <t>#ruf</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Karel, Blanche, Louise</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Ruf</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -1685,19 +1499,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>#hen</t>
+          <t>#phil</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Hen</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Phil</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -1711,19 +1521,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>#karel,-dionisio,-leonello,-henrick,-philippo</t>
+          <t>#arnoldo-in-de-thuyn</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Karel, Dionisio, Leonello, Henrick, Philippo</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Arnoldo in de thuyn</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -1737,19 +1543,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>#ruf</t>
+          <t>#hen</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ruf</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Hen</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -1763,19 +1565,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>#theodoor,-karel</t>
+          <t>#louise,-blanche</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Theodoor, Karel</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Louise, Blanche</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
@@ -1789,19 +1587,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>#arnoldo,-prudentio,-henrick,-philippo,-theodoro,-rufino</t>
+          <t>#lis</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Arnoldo, Prudentio, Henrick, Philippo, Theodoro, Rufino</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Lis</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -1815,19 +1609,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>#henrick,-theodoro,-philippo</t>
+          <t>#philippo,-theodoro,-blanche,-louise</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Henrick, Theodoro, Philippo</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Philippo, Theodoro, Blanche, Louise</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -1841,19 +1631,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>#kar</t>
+          <t>#prud</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Kar</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Prud</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -1867,19 +1653,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>#prudentio-veebaest-uyt,-henrick</t>
+          <t>#leo</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Prudentio veebaest uyt, Henrick</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Leo</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
@@ -1893,19 +1675,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>#arnoldo,-tancredo,-met-reysgewaed-uyt</t>
+          <t>#arnoldo,-prudentio,-henrick,-philippo,-theodoro,-rufino</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Arnoldo, Tancredo, met reysgewaed uyt</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Arnoldo, Prudentio, Henrick, Philippo, Theodoro, Rufino</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -1919,19 +1697,15 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>#leonello,-karel</t>
+          <t>#tan</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Leonello, Karel</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Tan</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -1945,12 +1719,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>#theo</t>
+          <t>#phi</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Leo</t>
+          <t>Phi</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -1967,12 +1741,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>#hen</t>
+          <t>#pru</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ken</t>
+          <t>Pru</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -1989,12 +1763,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>#phi</t>
+          <t>#blanche,-louise</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Pru</t>
+          <t>Blanche, Louise</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -2011,12 +1785,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>#phi</t>
+          <t>#henrick,-met-philippo-zijn-gunsteling-onder-snaergespeel-in-de-nacht-uyt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>The</t>
+          <t>Henrick, met Philippo zijn gunsteling onder snaergespeel in de nacht uyt</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -2033,12 +1807,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>#phi</t>
+          <t>#theodoro,-karel</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Phil</t>
+          <t>Theodoro, Karel</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -2055,12 +1829,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>#hen</t>
+          <t>#mar</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Henr</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -2077,12 +1851,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>#dio</t>
+          <t>#bla</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Die</t>
+          <t>Bla</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -2099,12 +1873,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>#hen</t>
+          <t>#leonello,-karel</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Tan</t>
+          <t>Leonello, Karel</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -2121,12 +1895,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>#hen</t>
+          <t>#rufino,-henrick,-philippo,-theodoro,-prudentio</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Arn</t>
+          <t>Rufino, Henrick, Philippo, Theodoro, Prudentio</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -2143,12 +1917,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>#kar</t>
+          <t>#arnoldo,-tancredo,-met-reysgewaed-uyt</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ar</t>
+          <t>Arnoldo, Tancredo, met reysgewaed uyt</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -2165,12 +1939,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>#dio</t>
+          <t>#leonello,-dionisio,-karel,-filis,-lisida,
+blanche,-louise</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Fil</t>
+          <t>Leonello, Dionisio, Karel, Filis, Lisida,
+Blanche, Louise</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -2187,12 +1963,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>#dio</t>
+          <t>#karel,-blanche,-louise</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Dam</t>
+          <t>Karel, Blanche, Louise</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -2209,12 +1985,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>#dio</t>
+          <t>#th</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lis</t>
+          <t>Th</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -2231,12 +2007,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>#kar</t>
+          <t>#leonello,-arnoldo,-tancredo</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>Leonello, Arnoldo, Tancredo</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -2253,12 +2029,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>#phi</t>
+          <t>#ar</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Th</t>
+          <t>Ar</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -2275,12 +2051,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>#blanche,-louise</t>
+          <t>#karel,-blanche</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Blanthe, Louise</t>
+          <t>Karel, Blanche</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -2297,12 +2073,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>#bla</t>
+          <t>#henrick,-philippo,-arnoldo,-prudentio</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Blan</t>
+          <t>Henrick, Philippo, Arnoldo, Prudentio</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -2319,12 +2095,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>#theodoor,-karel</t>
+          <t>#henrick,-theodoro,-philippo</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Theodoro, Karel</t>
+          <t>Henrick, Theodoro, Philippo</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>

--- a/playlist_per_work/lope001dull01.xlsx
+++ b/playlist_per_work/lope001dull01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,30 +446,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>new_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>speaker_variant</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>is_prefered</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>is_new</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>is_error</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>gender (Male/Female/Unknown/Other)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
@@ -483,19 +488,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#karel,-leonelle,-dionisio,-henrick,-philippo,-prudentio,-theodoro</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Karel, Leonelle, Dionisio, Henrick, Philippo, Prudentio, Theodoro</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>#louise</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Louise</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -505,19 +511,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#louise,-arnoldo</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Louise, Arnoldo</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>#blan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Blan</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -527,19 +534,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#lou</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Lou</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>#theodoro,-henrick,-philippo,-arnoldo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Theodoro, Henrick, Philippo, Arnoldo</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -549,19 +557,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#blanche.-karel</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Blanche. Karel</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>#hen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Hen</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -571,19 +580,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#dio</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Dio</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>#arnoldo,-prudentio,-henrick,-philippo,-theodoro,-rufino</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Arnoldo, Prudentio, Henrick, Philippo, Theodoro, Rufino</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -593,19 +603,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#philippo,-theodoro</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Philippo, Theodoro</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>#leonello,-arnoldo,-tancredo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Leonello, Arnoldo, Tancredo</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -615,19 +626,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#blan</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Blan</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>#louise,-blanche,-karel,-dionisio,-leonello</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Louise, Blanche, Karel, Dionisio, Leonello</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -637,19 +649,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#henrick,-arnoldo,-karel,-blanche</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Henrick, Arnoldo, Karel, Blanche</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>#karel,-dionisio,-leonello,-henrick,-philippo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Karel, Dionisio, Leonello, Henrick, Philippo</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -659,19 +672,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#henrick,-arnoldo,-karel,-blanche,-theodoor</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Henrick, Arnoldo, Karel, Blanche, Theodoor</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>#philippo,-henrick</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Philippo, Henrick</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -681,19 +695,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#karel,-dionisus,-leonello,-philippo</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Karel, Dionisus, Leonello, Philippo</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>#marsal,-karel,-dampier,-leonello,-dionisio,-blanche,
+louise,-filis,-lisida</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Marsal, Karel, Dampier, Leonello, Dionisio, Blanche,
+Louise, Filis, Lisida</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -703,19 +720,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#philippo,-arnoldo</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Philippo, Arnoldo</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>#kar</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Kar</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -725,19 +743,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#henrich,-prudentie,-theodoro</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Henrich, Prudentie, Theodoro</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>#henrick,-arnoldo,-karel,-blanche</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Henrick, Arnoldo, Karel, Blanche</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -747,19 +766,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#prudentio-veebaest-uyt,-henrick</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Prudentio veebaest uyt, Henrick</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>#theodoro,-karel</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Theodoro, Karel</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -769,19 +789,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#philippo,-arnoldo,-theodoro</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Philippo, Arnoldo, Theodoro</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>#phi</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Phi</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -791,19 +812,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#kar</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Kar</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>#karel,-leonelle,-dionisio,-henrick,-philippo,-prudentio,-theodoro</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Karel, Leonelle, Dionisio, Henrick, Philippo, Prudentio, Theodoro</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -813,19 +835,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#henr</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Henr</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>#leonello,-karel</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Leonello, Karel</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -835,19 +858,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#philippo,-henrick</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Philippo, Henrick</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>#louise,-arnoldo</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Louise, Arnoldo</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -857,19 +881,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#fil</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Fil</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>#henrick,-philippo,-arnoldo,-prudentio</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Henrick, Philippo, Arnoldo, Prudentio</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -879,19 +904,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#blanche,-louise,-henrick</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Blanche, Louise, Henrick</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>#karel,-dionisio,-leonello</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Karel, Dionisio, Leonello</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -901,19 +927,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#arn</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Arn</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>#theodoro,-leonello,-karel,-dionisio,-blanche,-louise</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Theodoro, Leonello, Karel, Dionisio, Blanche, Louise</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -923,19 +950,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#blanche,-in-slecht-gewaed,-karel,-theodoro</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Blanche, in slecht gewaed, Karel, Theodoro</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>#die</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Die</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -945,19 +973,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>#ken</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>#henr</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Henr</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -967,19 +996,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>#theodoro,-henrick,-prudentio,-philippo</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Theodoro, Henrick, Prudentio, Philippo</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>#karel,-arnoldo,-tancredo,-leonello</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Karel, Arnoldo, Tancredo, Leonello</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -989,19 +1019,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>#louise,-blanche,-karel,-dionisio,-leonello</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Louise, Blanche, Karel, Dionisio, Leonello</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>#theodoor,-karel</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Theodoor, Karel</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1011,19 +1042,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#dionisio,-karel,-rufino,-leonello</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Dionisio, Karel, Rufino, Leonello</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>#th</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Th</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1033,19 +1065,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>#blanthe,-louise</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Blanthe, Louise</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>#blanche,-louise,-henrick</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Blanche, Louise, Henrick</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1055,19 +1088,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>#theo</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Theo</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>#blanche</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Blanche</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1077,19 +1111,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#karel,-henrick,-blanche,-louise</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Karel, Henrick, Blanche, Louise</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>#philippo,-arnoldo,-theodoro</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Philippo, Arnoldo, Theodoro</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1099,19 +1134,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>#dam</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Dam</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>#henrick,-theodoro,-philippo</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Henrick, Theodoro, Philippo</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1121,19 +1157,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>#blanche</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Blanche</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>#leonello,-dionisio,-karel,-filis,-lisida,
+blanche,-louise</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Leonello, Dionisio, Karel, Filis, Lisida,
+Blanche, Louise</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1143,19 +1182,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>#karel,-dionisio,-leonello,-henrick,-philippo</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Karel, Dionisio, Leonello, Henrick, Philippo</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>#henrich,-prudentie,-theodoro</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Henrich, Prudentie, Theodoro</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1165,19 +1205,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>#tancredo,-arnoldo</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Tancredo, Arnoldo</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>#lis</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Lis</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1187,19 +1228,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>#the</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>The</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>#lou</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Lou</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1209,19 +1251,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>#theodoro,-henrick,-philippo,-arnoldo</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Theodoro, Henrick, Philippo, Arnoldo</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>#henrick,-philippo,-arnoldo,-theodoro,-leonello,-dionisio,
+karel,-blanche,-louise,-prudentio</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Henrick, Philippo, Arnoldo, Theodoro, Leonello, Dionisio,
+Karel, Blanche, Louise, Prudentio</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1231,21 +1276,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>#marsal,-karel,-dampier,-leonello,-dionisio,-blanche,
-louise,-filis,-lisida</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Marsal, Karel, Dampier, Leonello, Dionisio, Blanche,
-Louise, Filis, Lisida</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>#the</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1258,16 +1302,17 @@
           <t>#louise,-blanche,-karel,-leonello,-dionisio</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>Louise, Blanche, Karel, Leonello, Dionisio</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1277,19 +1322,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>#theodoor,-karel</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Theodoor, Karel</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>#philippo,-theodoro,-blanche,-louise</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Philippo, Theodoro, Blanche, Louise</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1299,19 +1345,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>#karel,-dionisio,-leonello</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Karel, Dionisio, Leonello</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>#karel,-leonello,-dionisio</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Karel, Leonello, Dionisio</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1321,21 +1368,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>#henrick,-philippo,-arnoldo,-theodoro,-leonello,-dionisio,
-karel,-blanche,-louise,-prudentio</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Henrick, Philippo, Arnoldo, Theodoro, Leonello, Dionisio,
-Karel, Blanche, Louise, Prudentio</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>#theo</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Theo</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1345,19 +1391,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>#louise</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Louise</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>#dio</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Dio</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1367,19 +1414,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>#karel,-arnoldo,-tancredo,-leonello</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Karel, Arnoldo, Tancredo, Leonello</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>#karel,-dionisus,-leonello,-philippo</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Karel, Dionisus, Leonello, Philippo</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1389,19 +1437,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>#karel,-philippo,-leonello,-dionisio,-theodoro</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Karel, Philippo, Leonello, Dionisio, Theodoro</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>#rufino,-henrick,-philippo,-theodoro,-prudentio</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Rufino, Henrick, Philippo, Theodoro, Prudentio</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1411,19 +1460,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>#die</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Die</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>#karel,-blanche</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Karel, Blanche</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1433,19 +1483,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>#theodoro,-leonello,-karel,-dionisio,-blanche,-louise</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Theodoro, Leonello, Karel, Dionisio, Blanche, Louise</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>#arnoldo-in-de-thuyn</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Arnoldo in de thuyn</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1455,19 +1506,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>#karel,-leonello,-dionisio</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Karel, Leonello, Dionisio</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>#pru</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Pru</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1477,19 +1529,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>#ruf</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Ruf</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>#henrick,-arnoldo,-karel,-blanche,-theodoor</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Henrick, Arnoldo, Karel, Blanche, Theodoor</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1499,19 +1552,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>#phil</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Phil</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>#bla</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Bla</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1521,19 +1575,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>#arnoldo-in-de-thuyn</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Arnoldo in de thuyn</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>#dionisio,-karel,-rufino,-leonello</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Dionisio, Karel, Rufino, Leonello</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1543,19 +1598,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>#hen</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Hen</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>#dam</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Dam</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1565,19 +1621,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>#louise,-blanche</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Louise, Blanche</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>#henrick,-met-philippo-zijn-gunsteling-onder-snaergespeel-in-de-nacht-uyt</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Henrick, met Philippo zijn gunsteling onder snaergespeel in de nacht uyt</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1587,19 +1644,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>#lis</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Lis</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>#mar</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1609,19 +1667,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>#philippo,-theodoro,-blanche,-louise</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Philippo, Theodoro, Blanche, Louise</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>#blanche.-karel</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Blanche. Karel</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1634,16 +1693,17 @@
           <t>#prud</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>Prud</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1653,19 +1713,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>#leo</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Leo</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>#fil</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Fil</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1675,19 +1736,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>#arnoldo,-prudentio,-henrick,-philippo,-theodoro,-rufino</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Arnoldo, Prudentio, Henrick, Philippo, Theodoro, Rufino</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>#blanthe,-louise</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Blanthe, Louise</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1697,19 +1759,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>#tan</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Tan</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>#phil</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Phil</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1719,19 +1782,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>#phi</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Phi</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>#arn</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Arn</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1741,19 +1805,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>#pru</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Pru</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>#arnoldo,-tancredo,-met-reysgewaed-uyt</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Arnoldo, Tancredo, met reysgewaed uyt</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1763,19 +1828,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>#blanche,-louise</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Blanche, Louise</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>#karel,-blanche,-louise</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Karel, Blanche, Louise</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1785,19 +1851,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>#henrick,-met-philippo-zijn-gunsteling-onder-snaergespeel-in-de-nacht-uyt</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Henrick, met Philippo zijn gunsteling onder snaergespeel in de nacht uyt</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>#ruf</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Ruf</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1807,19 +1874,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>#theodoro,-karel</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Theodoro, Karel</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>#tancredo,-arnoldo</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Tancredo, Arnoldo</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1829,19 +1897,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>#mar</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Mar</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>#leo</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Leo</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1851,19 +1920,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>#bla</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Bla</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>#tan</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Tan</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1873,19 +1943,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>#leonello,-karel</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Leonello, Karel</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>#karel,-henrick,-blanche,-louise</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Karel, Henrick, Blanche, Louise</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1895,19 +1966,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>#rufino,-henrick,-philippo,-theodoro,-prudentio</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Rufino, Henrick, Philippo, Theodoro, Prudentio</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>#theodoro,-henrick,-prudentio,-philippo</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Theodoro, Henrick, Prudentio, Philippo</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1917,19 +1989,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>#arnoldo,-tancredo,-met-reysgewaed-uyt</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Arnoldo, Tancredo, met reysgewaed uyt</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>#prudentio-veebaest-uyt,-henrick</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Prudentio veebaest uyt, Henrick</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1939,21 +2012,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>#leonello,-dionisio,-karel,-filis,-lisida,
-blanche,-louise</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Leonello, Dionisio, Karel, Filis, Lisida,
-Blanche, Louise</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>#louise,-blanche</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Louise, Blanche</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1963,19 +2035,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>#karel,-blanche,-louise</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Karel, Blanche, Louise</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>#philippo,-arnoldo</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Philippo, Arnoldo</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1985,19 +2058,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>#th</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>#blanche,-louise</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Blanche, Louise</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2007,19 +2081,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>#leonello,-arnoldo,-tancredo</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Leonello, Arnoldo, Tancredo</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>#ar</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2029,19 +2104,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>#ar</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Ar</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+          <t>#philippo,-theodoro</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Philippo, Theodoro</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2051,19 +2127,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>#karel,-blanche</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Karel, Blanche</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>#ken</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2073,19 +2150,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>#henrick,-philippo,-arnoldo,-prudentio</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Henrick, Philippo, Arnoldo, Prudentio</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>#blanche,-in-slecht-gewaed,-karel,-theodoro</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Blanche, in slecht gewaed, Karel, Theodoro</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2095,19 +2173,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>#henrick,-theodoro,-philippo</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Henrick, Theodoro, Philippo</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+          <t>#karel,-philippo,-leonello,-dionisio,-theodoro</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Karel, Philippo, Leonello, Dionisio, Theodoro</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
